--- a/decks/전급수_학습하기/전급수_09_조수사 한자읽기_46.xlsx
+++ b/decks/전급수_학습하기/전급수_09_조수사 한자읽기_46.xlsx
@@ -37,6 +37,9 @@
     <t>개 (일반 사물 수)</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>〜階</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>엔 (화폐 단위)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>〜年</t>
@@ -1823,8 +1823,8 @@
   <cols>
     <col min="1" max="2" width="16.3516" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.0234" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64.9062" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65" style="1" customWidth="1"/>
     <col min="6" max="9" width="16.3516" style="1" customWidth="1"/>
     <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
@@ -1863,7 +1863,9 @@
       <c r="D2" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" t="s" s="9">
+        <v>8</v>
+      </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="11"/>
@@ -1874,15 +1876,17 @@
         <v>2</v>
       </c>
       <c r="B3" t="s" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s" s="8">
-        <v>10</v>
-      </c>
-      <c r="E3" s="13"/>
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -1893,15 +1897,17 @@
         <v>3</v>
       </c>
       <c r="B4" t="s" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="E4" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="E4" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1912,15 +1918,17 @@
         <v>4</v>
       </c>
       <c r="B5" t="s" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="13">
+        <v>8</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
@@ -1931,16 +1939,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s" s="16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s" s="16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -1961,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="E7" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1982,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="E8" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -2003,7 +2011,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
@@ -2024,7 +2032,7 @@
         <v>31</v>
       </c>
       <c r="E10" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -2045,7 +2053,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -2066,7 +2074,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -2087,7 +2095,7 @@
         <v>40</v>
       </c>
       <c r="E13" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -2107,7 +2115,9 @@
       <c r="D14" t="s" s="17">
         <v>43</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -2127,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="E15" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -2148,7 +2158,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s" s="17">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -2169,7 +2179,7 @@
         <v>52</v>
       </c>
       <c r="E17" t="s" s="21">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -2190,7 +2200,7 @@
         <v>55</v>
       </c>
       <c r="E18" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -2211,7 +2221,7 @@
         <v>58</v>
       </c>
       <c r="E19" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -2232,7 +2242,7 @@
         <v>61</v>
       </c>
       <c r="E20" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -2253,7 +2263,7 @@
         <v>64</v>
       </c>
       <c r="E21" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -2274,7 +2284,7 @@
         <v>67</v>
       </c>
       <c r="E22" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -2295,7 +2305,7 @@
         <v>70</v>
       </c>
       <c r="E23" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -2316,7 +2326,7 @@
         <v>73</v>
       </c>
       <c r="E24" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -2336,7 +2346,9 @@
       <c r="D25" t="s" s="25">
         <v>76</v>
       </c>
-      <c r="E25" s="8"/>
+      <c r="E25" t="s" s="8">
+        <v>8</v>
+      </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="23"/>
@@ -2356,7 +2368,7 @@
         <v>79</v>
       </c>
       <c r="E26" t="s" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -2376,7 +2388,9 @@
       <c r="D27" t="s" s="17">
         <v>82</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="14"/>
@@ -2395,7 +2409,9 @@
       <c r="D28" t="s" s="17">
         <v>85</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
@@ -2414,7 +2430,9 @@
       <c r="D29" t="s" s="17">
         <v>88</v>
       </c>
-      <c r="E29" s="17"/>
+      <c r="E29" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
@@ -2433,7 +2451,9 @@
       <c r="D30" t="s" s="17">
         <v>90</v>
       </c>
-      <c r="E30" s="17"/>
+      <c r="E30" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F30" s="14"/>
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
@@ -2452,7 +2472,9 @@
       <c r="D31" t="s" s="17">
         <v>93</v>
       </c>
-      <c r="E31" s="17"/>
+      <c r="E31" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
@@ -2471,7 +2493,9 @@
       <c r="D32" t="s" s="17">
         <v>96</v>
       </c>
-      <c r="E32" s="17"/>
+      <c r="E32" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
@@ -2490,7 +2514,9 @@
       <c r="D33" t="s" s="17">
         <v>98</v>
       </c>
-      <c r="E33" s="17"/>
+      <c r="E33" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
@@ -2509,7 +2535,9 @@
       <c r="D34" t="s" s="17">
         <v>101</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
@@ -2528,7 +2556,9 @@
       <c r="D35" t="s" s="17">
         <v>104</v>
       </c>
-      <c r="E35" s="17"/>
+      <c r="E35" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F35" s="14"/>
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
@@ -2547,7 +2577,9 @@
       <c r="D36" t="s" s="17">
         <v>107</v>
       </c>
-      <c r="E36" s="17"/>
+      <c r="E36" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F36" s="14"/>
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
@@ -2566,7 +2598,9 @@
       <c r="D37" t="s" s="17">
         <v>110</v>
       </c>
-      <c r="E37" s="17"/>
+      <c r="E37" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F37" s="14"/>
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
@@ -2585,7 +2619,9 @@
       <c r="D38" t="s" s="17">
         <v>113</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F38" s="14"/>
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
@@ -2604,7 +2640,9 @@
       <c r="D39" t="s" s="17">
         <v>116</v>
       </c>
-      <c r="E39" s="17"/>
+      <c r="E39" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
@@ -2623,7 +2661,9 @@
       <c r="D40" t="s" s="17">
         <v>119</v>
       </c>
-      <c r="E40" s="17"/>
+      <c r="E40" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F40" s="14"/>
       <c r="G40" s="14"/>
       <c r="H40" s="15"/>
@@ -2642,7 +2682,9 @@
       <c r="D41" t="s" s="17">
         <v>122</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
@@ -2661,7 +2703,9 @@
       <c r="D42" t="s" s="17">
         <v>125</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
       <c r="H42" s="15"/>
@@ -2680,7 +2724,9 @@
       <c r="D43" t="s" s="17">
         <v>128</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" s="15"/>
@@ -2699,7 +2745,9 @@
       <c r="D44" t="s" s="17">
         <v>131</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F44" s="14"/>
       <c r="G44" s="14"/>
       <c r="H44" s="15"/>
@@ -2718,7 +2766,9 @@
       <c r="D45" t="s" s="17">
         <v>133</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="15"/>
@@ -2737,7 +2787,9 @@
       <c r="D46" t="s" s="17">
         <v>136</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" t="s" s="17">
+        <v>8</v>
+      </c>
       <c r="F46" s="14"/>
       <c r="G46" s="14"/>
       <c r="H46" s="15"/>
@@ -2756,7 +2808,9 @@
       <c r="D47" t="s" s="27">
         <v>138</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" t="s" s="27">
+        <v>8</v>
+      </c>
       <c r="F47" s="19"/>
       <c r="G47" s="28"/>
       <c r="H47" s="29"/>
